--- a/biology/Zoologie/Carcinidae/Carcinidae.xlsx
+++ b/biology/Zoologie/Carcinidae/Carcinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carcinidae sont une famille de crabes. 
-Selon World Register of Marine Species                               (7 février 2021)[1], elle comporte 6 genres actuels répartis dans 4 sous-familles. 
+Selon World Register of Marine Species                               (7 février 2021), elle comporte 6 genres actuels répartis dans 4 sous-familles. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille était auparavant considérée comme une sous-famille des Portunidae[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille était auparavant considérée comme une sous-famille des Portunidae.
 Dans certaines classifications, elle est considérée comme obsolète et remplacée par les Portunidae. 
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sous-famille Carcininae MacLeay, 1838
 Carcinus Leach, 1814 [in Leach, 1813-1815]
@@ -583,7 +599,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>MacLeay, 1838 : On the brachyurous decapod Crustacea brought from the Cape by Dr. Smith. in Illustrations of the Annulosa of South Africa; being a portion of the objects of natural history chiefly collected during an expedition into the interior of South Africa, under the direction of Dr. Andrew Smith, in the years 1834, 1835. and 1836; fitted out by “The Cape of Good Hope Association for Exploring Central Africa”. p. 53–71.</t>
         </is>
@@ -613,7 +631,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De Grave et al., 2009 : A classification of living and fossil genera of decapod crustaceans. Raffles Bulletin of Zoology, 2009, vol. 21, p. 1-109 (texte original)</t>
         </is>
